--- a/SevenTV.xlsx
+++ b/SevenTV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:VT51"/>
+  <dimension ref="A1:VT55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92295,6 +92295,7118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU52" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY52" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER52" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS52" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT52" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY52" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV52" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW52" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>21</v>
+      </c>
+      <c r="HL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="II52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV52" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ52" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB52" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB52" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT52" t="n">
+        <v>5</v>
+      </c>
+      <c r="LU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV52" t="n">
+        <v>1</v>
+      </c>
+      <c r="LW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI52" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN52" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP52" t="n">
+        <v>1</v>
+      </c>
+      <c r="MQ52" t="n">
+        <v>6</v>
+      </c>
+      <c r="MR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY52" t="n">
+        <v>3</v>
+      </c>
+      <c r="MZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="NB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="NC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN52" t="n">
+        <v>3</v>
+      </c>
+      <c r="NO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="NY52" t="n">
+        <v>17</v>
+      </c>
+      <c r="NZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ52" t="n">
+        <v>20</v>
+      </c>
+      <c r="OK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO52" t="n">
+        <v>13</v>
+      </c>
+      <c r="OP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR52" t="n">
+        <v>10</v>
+      </c>
+      <c r="OS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="PF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="PG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="PI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="QB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="QD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG52" t="n">
+        <v>1</v>
+      </c>
+      <c r="QH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="QM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN52" t="n">
+        <v>5</v>
+      </c>
+      <c r="QO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="QU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX52" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY52" t="n">
+        <v>2</v>
+      </c>
+      <c r="QZ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="RA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="RB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="RE52" t="n">
+        <v>2</v>
+      </c>
+      <c r="RF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK52" t="n">
+        <v>1</v>
+      </c>
+      <c r="RL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO52" t="n">
+        <v>5</v>
+      </c>
+      <c r="RP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="RY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC52" t="n">
+        <v>3</v>
+      </c>
+      <c r="SD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI52" t="n">
+        <v>8</v>
+      </c>
+      <c r="SJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN52" t="n">
+        <v>13</v>
+      </c>
+      <c r="SO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ52" t="n">
+        <v>16</v>
+      </c>
+      <c r="SR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="SS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU52" t="n">
+        <v>1</v>
+      </c>
+      <c r="SV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB52" t="n">
+        <v>1</v>
+      </c>
+      <c r="TC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="TG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN52" t="n">
+        <v>1</v>
+      </c>
+      <c r="TO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="TP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="UC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="UD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UH52" t="n">
+        <v>10</v>
+      </c>
+      <c r="UI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="US52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW52" t="n">
+        <v>18</v>
+      </c>
+      <c r="UX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI52" t="n">
+        <v>1</v>
+      </c>
+      <c r="VJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="VT52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>8</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU53" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL53" t="n">
+        <v>8</v>
+      </c>
+      <c r="EM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP53" t="n">
+        <v>6</v>
+      </c>
+      <c r="EQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES53" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET53" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU53" t="n">
+        <v>13</v>
+      </c>
+      <c r="EV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY53" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF53" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP53" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU53" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV53" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW53" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC53" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD53" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH53" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="II53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ53" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL53" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB53" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT53" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV53" t="n">
+        <v>8</v>
+      </c>
+      <c r="LW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN53" t="n">
+        <v>11</v>
+      </c>
+      <c r="MO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP53" t="n">
+        <v>11</v>
+      </c>
+      <c r="MQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="MR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY53" t="n">
+        <v>6</v>
+      </c>
+      <c r="MZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB53" t="n">
+        <v>10</v>
+      </c>
+      <c r="NC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND53" t="n">
+        <v>2</v>
+      </c>
+      <c r="NE53" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="NG53" t="n">
+        <v>4</v>
+      </c>
+      <c r="NH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="NI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN53" t="n">
+        <v>2</v>
+      </c>
+      <c r="NO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="NR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX53" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY53" t="n">
+        <v>24</v>
+      </c>
+      <c r="NZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC53" t="n">
+        <v>1</v>
+      </c>
+      <c r="OD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG53" t="n">
+        <v>2</v>
+      </c>
+      <c r="OH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ53" t="n">
+        <v>44</v>
+      </c>
+      <c r="OK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO53" t="n">
+        <v>9</v>
+      </c>
+      <c r="OP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR53" t="n">
+        <v>13</v>
+      </c>
+      <c r="OS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW53" t="n">
+        <v>1</v>
+      </c>
+      <c r="OX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="PI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="PK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="PL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN53" t="n">
+        <v>2</v>
+      </c>
+      <c r="PO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ53" t="n">
+        <v>5</v>
+      </c>
+      <c r="PR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="PU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="QB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="QJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="QR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW53" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY53" t="n">
+        <v>1</v>
+      </c>
+      <c r="QZ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="RA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB53" t="n">
+        <v>2</v>
+      </c>
+      <c r="RC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD53" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="RF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="RG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO53" t="n">
+        <v>7</v>
+      </c>
+      <c r="RP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC53" t="n">
+        <v>20</v>
+      </c>
+      <c r="SD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI53" t="n">
+        <v>22</v>
+      </c>
+      <c r="SJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="SR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST53" t="n">
+        <v>2</v>
+      </c>
+      <c r="SU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="TB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="TG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN53" t="n">
+        <v>2</v>
+      </c>
+      <c r="TO53" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB53" t="n">
+        <v>13</v>
+      </c>
+      <c r="UC53" t="n">
+        <v>12</v>
+      </c>
+      <c r="UD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="UH53" t="n">
+        <v>5</v>
+      </c>
+      <c r="UI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="US53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU53" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW53" t="n">
+        <v>25</v>
+      </c>
+      <c r="UX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="VB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG53" t="n">
+        <v>5</v>
+      </c>
+      <c r="VH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO54" t="n">
+        <v>16</v>
+      </c>
+      <c r="CP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT54" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>4</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED54" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF54" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL54" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP54" t="n">
+        <v>4</v>
+      </c>
+      <c r="EQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER54" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET54" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU54" t="n">
+        <v>13</v>
+      </c>
+      <c r="EV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD54" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE54" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS54" t="n">
+        <v>7</v>
+      </c>
+      <c r="FT54" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY54" t="n">
+        <v>4</v>
+      </c>
+      <c r="FZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF54" t="n">
+        <v>10</v>
+      </c>
+      <c r="GG54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD54" t="n">
+        <v>24</v>
+      </c>
+      <c r="HE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH54" t="n">
+        <v>29</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ54" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>28</v>
+      </c>
+      <c r="HL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU54" t="n">
+        <v>12</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="II54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV54" t="n">
+        <v>16</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB54" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU54" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB54" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD54" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE54" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="LK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="LL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="LQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT54" t="n">
+        <v>15</v>
+      </c>
+      <c r="LU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV54" t="n">
+        <v>3</v>
+      </c>
+      <c r="LW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH54" t="n">
+        <v>3</v>
+      </c>
+      <c r="MI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="MK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML54" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN54" t="n">
+        <v>4</v>
+      </c>
+      <c r="MO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP54" t="n">
+        <v>4</v>
+      </c>
+      <c r="MQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="MR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY54" t="n">
+        <v>2</v>
+      </c>
+      <c r="MZ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="NA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB54" t="n">
+        <v>13</v>
+      </c>
+      <c r="NC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="ND54" t="n">
+        <v>2</v>
+      </c>
+      <c r="NE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="NG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="NH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="NO54" t="n">
+        <v>3</v>
+      </c>
+      <c r="NP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT54" t="n">
+        <v>1</v>
+      </c>
+      <c r="NU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX54" t="n">
+        <v>4</v>
+      </c>
+      <c r="NY54" t="n">
+        <v>34</v>
+      </c>
+      <c r="NZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="OF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG54" t="n">
+        <v>1</v>
+      </c>
+      <c r="OH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="OJ54" t="n">
+        <v>57</v>
+      </c>
+      <c r="OK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="OM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO54" t="n">
+        <v>30</v>
+      </c>
+      <c r="OP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="OR54" t="n">
+        <v>32</v>
+      </c>
+      <c r="OS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW54" t="n">
+        <v>2</v>
+      </c>
+      <c r="OX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="PC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH54" t="n">
+        <v>7</v>
+      </c>
+      <c r="PI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK54" t="n">
+        <v>8</v>
+      </c>
+      <c r="PL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN54" t="n">
+        <v>4</v>
+      </c>
+      <c r="PO54" t="n">
+        <v>1</v>
+      </c>
+      <c r="PP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ54" t="n">
+        <v>6</v>
+      </c>
+      <c r="PR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV54" t="n">
+        <v>1</v>
+      </c>
+      <c r="PW54" t="n">
+        <v>2</v>
+      </c>
+      <c r="PX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="QB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="QD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK54" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="QP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="QR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT54" t="n">
+        <v>92</v>
+      </c>
+      <c r="QU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX54" t="n">
+        <v>4</v>
+      </c>
+      <c r="QY54" t="n">
+        <v>1</v>
+      </c>
+      <c r="QZ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="RA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="RB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF54" t="n">
+        <v>3</v>
+      </c>
+      <c r="RG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="RJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="RM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO54" t="n">
+        <v>41</v>
+      </c>
+      <c r="RP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="RV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="RY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="SA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB54" t="n">
+        <v>8</v>
+      </c>
+      <c r="SC54" t="n">
+        <v>16</v>
+      </c>
+      <c r="SD54" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI54" t="n">
+        <v>33</v>
+      </c>
+      <c r="SJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN54" t="n">
+        <v>12</v>
+      </c>
+      <c r="SO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="SP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="SQ54" t="n">
+        <v>24</v>
+      </c>
+      <c r="SR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX54" t="n">
+        <v>3</v>
+      </c>
+      <c r="SY54" t="n">
+        <v>1</v>
+      </c>
+      <c r="SZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="TB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF54" t="n">
+        <v>3</v>
+      </c>
+      <c r="TG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH54" t="n">
+        <v>4</v>
+      </c>
+      <c r="TI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT54" t="n">
+        <v>1</v>
+      </c>
+      <c r="TU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV54" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX54" t="n">
+        <v>5</v>
+      </c>
+      <c r="TY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB54" t="n">
+        <v>13</v>
+      </c>
+      <c r="UC54" t="n">
+        <v>24</v>
+      </c>
+      <c r="UD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="UH54" t="n">
+        <v>5</v>
+      </c>
+      <c r="UI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="UK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="UM54" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="UO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="UP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="US54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV54" t="n">
+        <v>4</v>
+      </c>
+      <c r="UW54" t="n">
+        <v>17</v>
+      </c>
+      <c r="UX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="VB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG54" t="n">
+        <v>3</v>
+      </c>
+      <c r="VH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="VJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>26</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>7</v>
+      </c>
+      <c r="CP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS55" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF55" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL55" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP55" t="n">
+        <v>4</v>
+      </c>
+      <c r="EQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER55" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET55" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU55" t="n">
+        <v>8</v>
+      </c>
+      <c r="EV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA55" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF55" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM55" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN55" t="n">
+        <v>2</v>
+      </c>
+      <c r="FO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS55" t="n">
+        <v>10</v>
+      </c>
+      <c r="FT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY55" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="GG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY55" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD55" t="n">
+        <v>15</v>
+      </c>
+      <c r="HE55" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH55" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>28</v>
+      </c>
+      <c r="HL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="II55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV55" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF55" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>30</v>
+      </c>
+      <c r="JW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC55" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="LK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="LQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT55" t="n">
+        <v>7</v>
+      </c>
+      <c r="LU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV55" t="n">
+        <v>6</v>
+      </c>
+      <c r="LW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC55" t="n">
+        <v>3</v>
+      </c>
+      <c r="MD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="MK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML55" t="n">
+        <v>1</v>
+      </c>
+      <c r="MM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN55" t="n">
+        <v>9</v>
+      </c>
+      <c r="MO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP55" t="n">
+        <v>4</v>
+      </c>
+      <c r="MQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="MR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="NB55" t="n">
+        <v>8</v>
+      </c>
+      <c r="NC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND55" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="NF55" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG55" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN55" t="n">
+        <v>2</v>
+      </c>
+      <c r="NO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="NP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX55" t="n">
+        <v>6</v>
+      </c>
+      <c r="NY55" t="n">
+        <v>25</v>
+      </c>
+      <c r="NZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ55" t="n">
+        <v>30</v>
+      </c>
+      <c r="OK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO55" t="n">
+        <v>14</v>
+      </c>
+      <c r="OP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR55" t="n">
+        <v>12</v>
+      </c>
+      <c r="OS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="PI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="PJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="PM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN55" t="n">
+        <v>2</v>
+      </c>
+      <c r="PO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="PR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="PS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="PT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW55" t="n">
+        <v>2</v>
+      </c>
+      <c r="PX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY55" t="n">
+        <v>3</v>
+      </c>
+      <c r="PZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA55" t="n">
+        <v>2</v>
+      </c>
+      <c r="QB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD55" t="n">
+        <v>1</v>
+      </c>
+      <c r="QE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="QH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN55" t="n">
+        <v>2</v>
+      </c>
+      <c r="QO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="QR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT55" t="n">
+        <v>64</v>
+      </c>
+      <c r="QU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW55" t="n">
+        <v>1</v>
+      </c>
+      <c r="QX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD55" t="n">
+        <v>1</v>
+      </c>
+      <c r="RE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="RG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="RJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="RL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="RM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO55" t="n">
+        <v>26</v>
+      </c>
+      <c r="RP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX55" t="n">
+        <v>2</v>
+      </c>
+      <c r="RY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB55" t="n">
+        <v>3</v>
+      </c>
+      <c r="SC55" t="n">
+        <v>25</v>
+      </c>
+      <c r="SD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="SI55" t="n">
+        <v>22</v>
+      </c>
+      <c r="SJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN55" t="n">
+        <v>3</v>
+      </c>
+      <c r="SO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="SR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST55" t="n">
+        <v>2</v>
+      </c>
+      <c r="SU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX55" t="n">
+        <v>3</v>
+      </c>
+      <c r="SY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="TB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="TI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="TJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="UC55" t="n">
+        <v>2</v>
+      </c>
+      <c r="UD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG55" t="n">
+        <v>2</v>
+      </c>
+      <c r="UH55" t="n">
+        <v>9</v>
+      </c>
+      <c r="UI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="US55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW55" t="n">
+        <v>10</v>
+      </c>
+      <c r="UX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="VB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG55" t="n">
+        <v>2</v>
+      </c>
+      <c r="VH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="VJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="VQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT55" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
